--- a/data/gasnodes.xlsx
+++ b/data/gasnodes.xlsx
@@ -1,27 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/yu_wang_1_vanderbilt_edu/Documents/code/Infrastructure-network-simulation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/yu_wang_1_vanderbilt_edu/Documents/code/Bayesian_Inference/Bayesian_Graph_Learning_2.0/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{08209629-FAA1-49D4-8BAC-BED9493AFE4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{816CCFE7-BB84-42F2-B993-1ADB046F08C7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D9EB11D-AF14-4B7B-87F6-92A47D529BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8348" yWindow="915" windowWidth="9045" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BEA802B3-7A4C-4572-8014-57F060D60F55}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$17</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -45,10 +50,10 @@
     <t>Y</t>
   </si>
   <si>
+    <t>Long</t>
+  </si>
+  <si>
     <t>Lat</t>
-  </si>
-  <si>
-    <t>Long</t>
   </si>
   <si>
     <t>Gas pumping station</t>
@@ -102,19 +107,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -151,7 +152,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -163,7 +164,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -210,6 +211,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -245,6 +263,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -396,410 +431,404 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD600771-CC29-4326-A289-50026DB1159D}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="15.265625" customWidth="1"/>
-    <col min="3" max="3" width="26.86328125" customWidth="1"/>
-    <col min="4" max="4" width="56.86328125" customWidth="1"/>
-    <col min="6" max="7" width="19.73046875" style="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>742617</v>
+      </c>
+      <c r="E2" s="1">
+        <v>268013</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-90.094011715999997</v>
+      </c>
+      <c r="G2" s="1">
+        <v>34.999152326100003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>835852</v>
+      </c>
+      <c r="E3" s="1">
+        <v>331459</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-89.791168159999998</v>
+      </c>
+      <c r="G3" s="1">
+        <v>35.183632772599999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>866472</v>
+      </c>
+      <c r="E4" s="1">
+        <v>384081</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-89.695423177699993</v>
+      </c>
+      <c r="G4" s="1">
+        <v>35.331311790800001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>775403</v>
+      </c>
+      <c r="E5" s="1">
+        <v>265941</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-89.984361226999994</v>
+      </c>
+      <c r="G5" s="1">
+        <v>34.997180417000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>784629</v>
+      </c>
+      <c r="E6" s="1">
+        <v>367218</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-89.967285282199995</v>
+      </c>
+      <c r="G6" s="3">
+        <v>35.276219487799999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>824453</v>
+      </c>
+      <c r="E7" s="1">
+        <v>333129</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-89.829502130700007</v>
+      </c>
+      <c r="G7" s="1">
+        <v>35.1869983586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
-        <v>742617</v>
-      </c>
-      <c r="E2" s="2">
-        <v>268013</v>
-      </c>
-      <c r="F2" s="4">
-        <v>-90.094011715999997</v>
-      </c>
-      <c r="G2" s="4">
-        <v>34.999152326100003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
-        <v>835852</v>
-      </c>
-      <c r="E3" s="2">
-        <v>331459</v>
-      </c>
-      <c r="F3" s="4">
-        <v>-89.791168159999998</v>
-      </c>
-      <c r="G3" s="4">
-        <v>35.183632772599999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>859983</v>
+      </c>
+      <c r="E8" s="1">
+        <v>339092</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-89.711445655299997</v>
+      </c>
+      <c r="G8" s="1">
+        <v>35.207126405799997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>852152</v>
+      </c>
+      <c r="E9" s="1">
+        <v>311740</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-89.734145917199996</v>
+      </c>
+      <c r="G9" s="1">
+        <v>35.131220003300001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>850515</v>
+      </c>
+      <c r="E10" s="1">
+        <v>298347</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-89.737906695800007</v>
+      </c>
+      <c r="G10" s="1">
+        <v>35.094280282600003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>848742</v>
+      </c>
+      <c r="E11" s="1">
+        <v>280937</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-89.741603679799994</v>
+      </c>
+      <c r="G11" s="1">
+        <v>35.046298110499997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>866472</v>
-      </c>
-      <c r="E4" s="2">
-        <v>384081</v>
-      </c>
-      <c r="F4" s="4">
-        <v>-89.695423177699993</v>
-      </c>
-      <c r="G4" s="4">
-        <v>35.331311790800001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>775403</v>
-      </c>
-      <c r="E5" s="2">
-        <v>265941</v>
-      </c>
-      <c r="F5" s="4">
-        <v>-89.984361226999994</v>
-      </c>
-      <c r="G5" s="4">
-        <v>34.997180417000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>784629</v>
-      </c>
-      <c r="E6" s="2">
-        <v>367218</v>
-      </c>
-      <c r="F6" s="4">
-        <v>-89.967285282199995</v>
-      </c>
-      <c r="G6" s="5">
-        <v>35.276219487799999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>824453</v>
-      </c>
-      <c r="E7" s="2">
-        <v>333129</v>
-      </c>
-      <c r="F7" s="4">
-        <v>-89.829502130700007</v>
-      </c>
-      <c r="G7" s="4">
-        <v>35.1869983586</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>859983</v>
-      </c>
-      <c r="E8" s="2">
-        <v>339092</v>
-      </c>
-      <c r="F8" s="4">
-        <v>-89.711445655299997</v>
-      </c>
-      <c r="G8" s="4">
-        <v>35.207126405799997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>724289</v>
+      </c>
+      <c r="E12" s="1">
+        <v>297423</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-90.159321688000006</v>
+      </c>
+      <c r="G12" s="1">
+        <v>35.077755316500003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1">
+        <v>846768</v>
+      </c>
+      <c r="E13" s="1">
+        <v>388387</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-89.7619872179</v>
+      </c>
+      <c r="G13" s="1">
+        <v>35.341072510499998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2">
-        <v>852152</v>
-      </c>
-      <c r="E9" s="2">
-        <v>311740</v>
-      </c>
-      <c r="F9" s="4">
-        <v>-89.734145917199996</v>
-      </c>
-      <c r="G9" s="4">
-        <v>35.131220003300001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>865488</v>
+      </c>
+      <c r="E14" s="1">
+        <v>375775</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-89.697667588599998</v>
+      </c>
+      <c r="G14" s="3">
+        <v>35.308407084300001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2">
-        <v>850515</v>
-      </c>
-      <c r="E10" s="2">
-        <v>298347</v>
-      </c>
-      <c r="F10" s="4">
-        <v>-89.737906695800007</v>
-      </c>
-      <c r="G10" s="4">
-        <v>35.094280282600003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <v>0</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D15" s="1">
+        <v>867887</v>
+      </c>
+      <c r="E15" s="1">
+        <v>368358</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-89.688696354599998</v>
+      </c>
+      <c r="G15" s="3">
+        <v>35.288294325099997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2">
-        <v>724289</v>
-      </c>
-      <c r="E11" s="2">
-        <v>297423</v>
-      </c>
-      <c r="F11" s="4">
-        <v>-90.159321688000006</v>
-      </c>
-      <c r="G11" s="4">
-        <v>35.077755316500003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D16" s="1">
+        <v>852304</v>
+      </c>
+      <c r="E16" s="1">
+        <v>330820</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-89.7360738876</v>
+      </c>
+      <c r="G16" s="1">
+        <v>35.183615697599997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="2">
-        <v>846768</v>
-      </c>
-      <c r="E12" s="2">
-        <v>388387</v>
-      </c>
-      <c r="F12" s="4">
-        <v>-89.7619872179</v>
-      </c>
-      <c r="G12" s="4">
-        <v>35.341072510499998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2">
-        <v>865488</v>
-      </c>
-      <c r="E13" s="2">
-        <v>375775</v>
-      </c>
-      <c r="F13" s="4">
-        <v>-89.697667588599998</v>
-      </c>
-      <c r="G13" s="5">
-        <v>35.308407084300001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2">
-        <v>867887</v>
-      </c>
-      <c r="E14" s="2">
-        <v>368358</v>
-      </c>
-      <c r="F14" s="4">
-        <v>-89.688696354599998</v>
-      </c>
-      <c r="G14" s="5">
-        <v>35.288294325099997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2">
-        <v>852304</v>
-      </c>
-      <c r="E15" s="2">
-        <v>330820</v>
-      </c>
-      <c r="F15" s="4">
-        <v>-89.7360738876</v>
-      </c>
-      <c r="G15" s="4">
-        <v>35.183615697599997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="D17" s="1">
         <v>881141</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="1">
         <v>328204</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F17" s="1">
         <v>-89.639315870600001</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G17" s="1">
         <v>35.1794172918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2">
-        <v>848742</v>
-      </c>
-      <c r="E17" s="2">
-        <v>280937</v>
-      </c>
-      <c r="F17" s="4">
-        <v>-89.741603679799994</v>
-      </c>
-      <c r="G17" s="4">
-        <v>35.046298110499997</v>
       </c>
     </row>
   </sheetData>
